--- a/financeiro/exemplo financeiro.xlsx
+++ b/financeiro/exemplo financeiro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Investimentos Fixos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="147">
   <si>
     <t>Investimentos Fixos (Empresa de criação de web site e aplicativos para Área de Educação)</t>
   </si>
@@ -501,17 +501,20 @@
   <si>
     <t>Despesas para Legalização (MEI)</t>
   </si>
+  <si>
+    <t>Tablet para apresentação rápida</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1531,7 +1534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1551,27 +1554,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1584,16 +1587,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1609,28 +1612,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1640,7 +1643,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,13 +1652,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1668,8 +1671,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1684,10 +1687,10 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1697,8 +1700,8 @@
     <xf numFmtId="3" fontId="11" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,7 +1718,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,24 +1731,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1761,16 +1764,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1782,7 +1785,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1791,13 +1794,13 @@
     <xf numFmtId="9" fontId="3" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1812,27 +1815,27 @@
     <xf numFmtId="1" fontId="3" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1842,13 +1845,13 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1859,7 +1862,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="13" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1869,46 +1872,39 @@
     <xf numFmtId="1" fontId="3" fillId="13" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1918,12 +1914,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2171,13 +2175,13 @@
             <c:numRef>
               <c:f>'Investimento Total'!$B$3:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>"R$"\ #,##0.00;[Red]\-"R$"\ #,##0.00</c:formatCode>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17500</c:v>
+                  <c:v>20500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81583.857333333319</c:v>
+                  <c:v>179882.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15300</c:v>
@@ -2420,11 +2424,11 @@
               <c:numCache>
                 <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00">
-                  <c:v>3724.2539999999999</c:v>
+                <c:pt idx="0" formatCode="&quot;R$&quot;#,##0.00_);[Red]\(&quot;R$&quot;#,##0.00\)">
+                  <c:v>10491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19746.111111111109</c:v>
+                  <c:v>19489.444444444445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2748,7 +2752,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G5:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2767,7 +2771,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="154"/>
@@ -2778,7 +2782,7 @@
       <c r="G1" s="154"/>
       <c r="H1" s="154"/>
       <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
+      <c r="J1" s="158"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2831,14 +2835,14 @@
       </c>
       <c r="C3" s="154"/>
       <c r="D3" s="154"/>
-      <c r="E3" s="155"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="1"/>
       <c r="G3" s="156" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="154"/>
       <c r="I3" s="154"/>
-      <c r="J3" s="155"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2910,7 +2914,7 @@
         <v>5000</v>
       </c>
       <c r="E5" s="10">
-        <f t="shared" ref="E5:E11" si="0">C5*D5</f>
+        <f t="shared" ref="E5:E7" si="0">C5*D5</f>
         <v>15000</v>
       </c>
       <c r="F5" s="1"/>
@@ -2980,10 +2984,19 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3103,11 +3116,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="157" t="s">
+      <c r="G11" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="158"/>
-      <c r="I11" s="159"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="161"/>
       <c r="J11" s="20">
         <f>SUM(J5:J10)</f>
         <v>0</v>
@@ -3131,14 +3144,14 @@
     </row>
     <row r="12" spans="1:26" ht="21">
       <c r="A12" s="1"/>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="161"/>
       <c r="E12" s="21">
         <f>SUM(E5:E11)</f>
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3169,11 +3182,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="160" t="s">
+      <c r="G13" s="153" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="154"/>
-      <c r="I13" s="161"/>
+      <c r="I13" s="155"/>
       <c r="J13" s="22"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3267,7 +3280,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="154"/>
-      <c r="I16" s="161"/>
+      <c r="I16" s="155"/>
       <c r="J16" s="28">
         <f>SUM(J15)</f>
         <v>0</v>
@@ -3356,10 +3369,10 @@
         <v>10</v>
       </c>
       <c r="H19" s="154"/>
-      <c r="I19" s="161"/>
+      <c r="I19" s="155"/>
       <c r="J19" s="29">
         <f>E12+J11+J16+E19</f>
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -30981,8 +30994,8 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -31000,7 +31013,7 @@
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
-      <c r="D1" s="155"/>
+      <c r="D1" s="158"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="30" t="s">
@@ -31037,14 +31050,14 @@
       </c>
       <c r="B4" s="37">
         <f>FaturamentoXCustos!D34</f>
-        <v>3724.2539999999999</v>
+        <v>10491</v>
       </c>
       <c r="C4" s="38">
         <v>6</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
-        <v>22345.523999999998</v>
+        <v>62946</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -31052,15 +31065,15 @@
         <v>17</v>
       </c>
       <c r="B5" s="40">
-        <f>('cont... custos'!B41)*0.5</f>
-        <v>9873.0555555555547</v>
+        <f>('cont... custos'!B41)</f>
+        <v>19489.444444444445</v>
       </c>
       <c r="C5" s="41">
         <v>6</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>59238.333333333328</v>
+        <v>116936.66666666667</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -31068,10 +31081,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="154"/>
-      <c r="C6" s="161"/>
+      <c r="C6" s="155"/>
       <c r="D6" s="42">
         <f>SUM(D4:D5)</f>
-        <v>81583.857333333319</v>
+        <v>179882.66666666669</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -32106,7 +32119,7 @@
       <c r="A2" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="161"/>
+      <c r="B2" s="155"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="23" t="s">
@@ -33175,7 +33188,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -33190,7 +33203,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="154"/>
-      <c r="C1" s="161"/>
+      <c r="C1" s="155"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="53" t="s">
@@ -33209,11 +33222,11 @@
       </c>
       <c r="B3" s="56">
         <f>'Investimentos Fixos'!J19</f>
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="C3" s="57">
         <f>B3/B6</f>
-        <v>0.15299361647686116</v>
+        <v>9.5047044423288526E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -33222,11 +33235,11 @@
       </c>
       <c r="B4" s="56">
         <f>'Capital de Giro'!D6</f>
-        <v>81583.857333333319</v>
+        <v>179882.66666666669</v>
       </c>
       <c r="C4" s="57">
         <f>B4/B6</f>
-        <v>0.71324625026051169</v>
+        <v>0.83401540534859853</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -33239,7 +33252,7 @@
       </c>
       <c r="C5" s="60">
         <f>B5/B6</f>
-        <v>0.13376013326262717</v>
+        <v>7.0937550228112906E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
@@ -33248,7 +33261,7 @@
       </c>
       <c r="B6" s="61">
         <f>SUM(B3:B5)</f>
-        <v>114383.85733333332</v>
+        <v>215682.66666666669</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -34245,8 +34258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -34267,7 +34280,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="154"/>
-      <c r="C1" s="161"/>
+      <c r="C1" s="155"/>
       <c r="D1" s="22"/>
       <c r="E1" s="62"/>
     </row>
@@ -34354,11 +34367,11 @@
         <v>6000</v>
       </c>
       <c r="C5" s="67">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
@@ -34378,11 +34391,11 @@
         <v>3000</v>
       </c>
       <c r="C6" s="67">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="7" t="s">
@@ -34398,14 +34411,14 @@
         <v>43</v>
       </c>
       <c r="B7" s="68">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="67">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="7" t="s">
@@ -34466,10 +34479,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="154"/>
-      <c r="C10" s="161"/>
+      <c r="C10" s="155"/>
       <c r="D10" s="51">
         <f>SUM(D3:D9)</f>
-        <v>36620</v>
+        <v>97100</v>
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="1"/>
@@ -34607,11 +34620,11 @@
       <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="168"/>
       <c r="D18" s="42" t="str">
         <f ca="1">SUM(D14:D19)</f>
         <v>#REF!</v>
@@ -34709,11 +34722,11 @@
       <c r="G27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="165"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="42">
         <f>SUM(D22:D27)</f>
         <v>0</v>
@@ -34752,15 +34765,15 @@
         <v>67</v>
       </c>
       <c r="B32" s="92">
-        <v>8.9700000000000002E-2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C32" s="93">
-        <f>D10</f>
-        <v>36620</v>
+        <f>(D10)</f>
+        <v>97100</v>
       </c>
       <c r="D32" s="17">
-        <f>B32*C32</f>
-        <v>3284.8139999999999</v>
+        <f>(B32*C32)-9900</f>
+        <v>9034.5</v>
       </c>
       <c r="E32" s="62"/>
     </row>
@@ -34769,29 +34782,30 @@
         <v>68</v>
       </c>
       <c r="B33" s="92">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C33" s="10">
         <f>D10*0.3</f>
-        <v>10986</v>
+        <v>29130</v>
       </c>
       <c r="D33" s="17">
         <f>C33*B33</f>
-        <v>439.44</v>
+        <v>1456.5</v>
       </c>
       <c r="E33" s="62"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="163"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="42">
+      <c r="A34" s="166"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="51">
         <f>SUM(D32:D33)</f>
-        <v>3724.2539999999999</v>
+        <v>10491</v>
       </c>
       <c r="E34" s="62"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D35" s="182"/>
       <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
@@ -34879,9 +34893,9 @@
       <c r="E51" s="62"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="166"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="168"/>
+      <c r="A52" s="163"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="165"/>
       <c r="D52" s="95"/>
       <c r="E52" s="62"/>
     </row>
@@ -37747,8 +37761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -37775,7 +37789,7 @@
       <c r="E1" s="154"/>
       <c r="F1" s="154"/>
       <c r="G1" s="154"/>
-      <c r="H1" s="161"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
@@ -37902,7 +37916,7 @@
       <c r="E7" s="154"/>
       <c r="F7" s="154"/>
       <c r="G7" s="154"/>
-      <c r="H7" s="161"/>
+      <c r="H7" s="155"/>
       <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:9">
@@ -37960,9 +37974,9 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7">
-        <f>'Investimentos Fixos'!G6</f>
-        <v>0</v>
+      <c r="A10" s="7" t="str">
+        <f>'Investimentos Fixos'!B6</f>
+        <v>Impressora</v>
       </c>
       <c r="B10" s="7">
         <f>'Investimentos Fixos'!C6</f>
@@ -37990,32 +38004,32 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7">
-        <f>'Investimentos Fixos'!G5</f>
-        <v>0</v>
+      <c r="A11" s="7" t="str">
+        <f>'Investimentos Fixos'!B7</f>
+        <v>Tablet para apresentação rápida</v>
       </c>
       <c r="B11" s="7">
-        <f>'Investimentos Fixos'!C11</f>
-        <v>0</v>
+        <f>'Investimentos Fixos'!C7</f>
+        <v>1</v>
       </c>
       <c r="C11" s="87">
-        <f>'Investimentos Fixos'!D11</f>
-        <v>0</v>
+        <f>'Investimentos Fixos'!D7</f>
+        <v>3000</v>
       </c>
       <c r="D11" s="107">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E11" s="108">
         <v>3</v>
       </c>
       <c r="F11" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="93">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="I11" s="62"/>
     </row>
@@ -38110,7 +38124,7 @@
       <c r="F20" s="162"/>
       <c r="G20" s="109">
         <f>SUM(G9:G19)</f>
-        <v>486.11111111111114</v>
+        <v>569.44444444444446</v>
       </c>
       <c r="I20" s="62"/>
     </row>
@@ -38128,7 +38142,7 @@
       <c r="D23" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="168"/>
+      <c r="E23" s="165"/>
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
@@ -38143,7 +38157,7 @@
       </c>
       <c r="E24" s="111">
         <f>FaturamentoXCustos!$D$34</f>
-        <v>3724.2539999999999</v>
+        <v>10491</v>
       </c>
       <c r="I24" s="62"/>
     </row>
@@ -38157,7 +38171,7 @@
       </c>
       <c r="E25" s="112">
         <f>B41</f>
-        <v>19746.111111111109</v>
+        <v>19489.444444444445</v>
       </c>
       <c r="I25" s="62"/>
     </row>
@@ -38189,7 +38203,7 @@
         <v>98</v>
       </c>
       <c r="B29" s="93">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I29" s="62"/>
     </row>
@@ -38198,7 +38212,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="93">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I30" s="62"/>
     </row>
@@ -38288,7 +38302,7 @@
       </c>
       <c r="B40" s="93">
         <f>G20</f>
-        <v>486.11111111111114</v>
+        <v>569.44444444444446</v>
       </c>
       <c r="I40" s="62"/>
     </row>
@@ -38298,7 +38312,7 @@
       </c>
       <c r="B41" s="51">
         <f>SUM(B25:B40)</f>
-        <v>19746.111111111109</v>
+        <v>19489.444444444445</v>
       </c>
       <c r="I41" s="62"/>
     </row>
@@ -41198,8 +41212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -41211,7 +41225,7 @@
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41239,11 +41253,11 @@
       <c r="F2" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="170">
+      <c r="G2" s="179">
         <f>C3</f>
-        <v>36620</v>
+        <v>97100</v>
       </c>
-      <c r="H2" s="165"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:8" ht="21">
       <c r="A3" s="116" t="s">
@@ -41254,7 +41268,7 @@
       </c>
       <c r="C3" s="118">
         <f>FaturamentoXCustos!D10</f>
-        <v>36620</v>
+        <v>97100</v>
       </c>
       <c r="D3" s="119"/>
       <c r="F3" s="115" t="s">
@@ -41262,11 +41276,11 @@
       </c>
       <c r="G3" s="120">
         <f>D10</f>
-        <v>0.35908342132410948</v>
+        <v>0.69124156081931576</v>
       </c>
       <c r="H3" s="121">
         <f>C10</f>
-        <v>13149.63488888889</v>
+        <v>67119.555555555562</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="90">
@@ -41274,7 +41288,7 @@
       <c r="B4" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="180">
         <f>FaturamentoXCustos!D28</f>
         <v>0</v>
       </c>
@@ -41284,7 +41298,7 @@
       </c>
       <c r="G4" s="120">
         <f>B32</f>
-        <v>0.1149605826857954</v>
+        <v>0.3111958721248913</v>
       </c>
       <c r="H4" s="124" t="s">
         <v>118</v>
@@ -41297,7 +41311,7 @@
       <c r="B5" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="172"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="125"/>
       <c r="E5" s="126"/>
       <c r="F5" s="115" t="s">
@@ -41305,7 +41319,7 @@
       </c>
       <c r="G5" s="127">
         <f>B38</f>
-        <v>8.698633711114276</v>
+        <v>3.2134102331494714</v>
       </c>
       <c r="H5" s="127" t="s">
         <v>122</v>
@@ -41320,7 +41334,7 @@
       </c>
       <c r="C6" s="87">
         <f>FaturamentoXCustos!D34</f>
-        <v>3724.2539999999999</v>
+        <v>10491</v>
       </c>
       <c r="D6" s="128"/>
     </row>
@@ -41331,7 +41345,7 @@
       </c>
       <c r="C7" s="131">
         <f>SUM(C4:C6)</f>
-        <v>3724.2539999999999</v>
+        <v>10491</v>
       </c>
       <c r="D7" s="132"/>
     </row>
@@ -41342,7 +41356,7 @@
       </c>
       <c r="C8" s="134">
         <f>C3-C7</f>
-        <v>32895.745999999999</v>
+        <v>86609</v>
       </c>
       <c r="D8" s="135"/>
     </row>
@@ -41355,7 +41369,7 @@
       </c>
       <c r="C9" s="138">
         <f>'cont... custos'!B41</f>
-        <v>19746.111111111109</v>
+        <v>19489.444444444445</v>
       </c>
       <c r="D9" s="139"/>
     </row>
@@ -41366,11 +41380,11 @@
       </c>
       <c r="C10" s="142">
         <f>C8-C9</f>
-        <v>13149.63488888889</v>
+        <v>67119.555555555562</v>
       </c>
       <c r="D10" s="143">
         <f>C10/C3</f>
-        <v>0.35908342132410948</v>
+        <v>0.69124156081931576</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -41380,39 +41394,39 @@
       <c r="F12" s="144"/>
     </row>
     <row r="13" spans="1:8" ht="21">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="177" t="s">
         <v>129</v>
       </c>
       <c r="B13" s="154"/>
       <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
+      <c r="D13" s="158"/>
       <c r="F13" s="144"/>
     </row>
     <row r="14" spans="1:8" ht="21">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="171" t="s">
         <v>130</v>
       </c>
       <c r="B14" s="154"/>
       <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
+      <c r="D14" s="158"/>
       <c r="F14" s="144"/>
     </row>
     <row r="15" spans="1:8" ht="21">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="171" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="154"/>
       <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
+      <c r="D15" s="158"/>
       <c r="F15" s="144"/>
     </row>
     <row r="16" spans="1:8" ht="21">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
       <c r="F16" s="144"/>
     </row>
     <row r="17" spans="1:6" ht="21">
@@ -41421,7 +41435,7 @@
       </c>
       <c r="B17" s="146">
         <f>C8/C3</f>
-        <v>0.89829999999999999</v>
+        <v>0.89195674562306904</v>
       </c>
       <c r="C17" s="147"/>
       <c r="F17" s="79"/>
@@ -41432,43 +41446,43 @@
       </c>
       <c r="B18" s="149">
         <f>C9/B17</f>
-        <v>21981.644340544484</v>
+        <v>21850.212513197883</v>
       </c>
       <c r="C18" s="150"/>
       <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A19" s="178" t="s">
+      <c r="A19" s="170" t="s">
         <v>135</v>
       </c>
       <c r="B19" s="154"/>
       <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
+      <c r="D19" s="158"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="177" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="154"/>
       <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
+      <c r="D22" s="158"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="174" t="s">
+      <c r="A23" s="171" t="s">
         <v>136</v>
       </c>
       <c r="B23" s="154"/>
       <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
+      <c r="D23" s="158"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="175" t="s">
+      <c r="A24" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="176"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="148" t="s">
@@ -41476,44 +41490,44 @@
       </c>
       <c r="B25" s="151">
         <f>C10/C3</f>
-        <v>0.35908342132410948</v>
+        <v>0.69124156081931576</v>
       </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="178" t="s">
+      <c r="A26" s="170" t="s">
         <v>138</v>
       </c>
       <c r="B26" s="154"/>
       <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
+      <c r="D26" s="158"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="173" t="s">
+      <c r="A29" s="177" t="s">
         <v>117</v>
       </c>
       <c r="B29" s="154"/>
       <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
+      <c r="D29" s="158"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="171" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="154"/>
       <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
+      <c r="D30" s="158"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="174"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="148" t="s">
@@ -41521,43 +41535,43 @@
       </c>
       <c r="B32" s="151">
         <f>C10/'Investimento Total'!B6</f>
-        <v>0.1149605826857954</v>
+        <v>0.3111958721248913</v>
       </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="180"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="176"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="178" t="s">
+      <c r="A33" s="170" t="s">
         <v>141</v>
       </c>
       <c r="B33" s="154"/>
       <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
+      <c r="D33" s="158"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="173" t="s">
+      <c r="A35" s="177" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="154"/>
       <c r="C35" s="154"/>
-      <c r="D35" s="155"/>
+      <c r="D35" s="158"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A36" s="174" t="s">
+      <c r="A36" s="171" t="s">
         <v>143</v>
       </c>
       <c r="B36" s="154"/>
       <c r="C36" s="154"/>
-      <c r="D36" s="155"/>
+      <c r="D36" s="158"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="175" t="s">
+      <c r="A37" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="174"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="148" t="s">
@@ -41565,18 +41579,18 @@
       </c>
       <c r="B38" s="152">
         <f>'Investimento Total'!B6/C10</f>
-        <v>8.698633711114276</v>
+        <v>3.2134102331494714</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="180"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="176"/>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="170" t="s">
         <v>144</v>
       </c>
       <c r="B39" s="154"/>
       <c r="C39" s="154"/>
-      <c r="D39" s="155"/>
+      <c r="D39" s="158"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:4" ht="15.75" customHeight="1"/>
@@ -42541,6 +42555,21 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
@@ -42549,21 +42578,6 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
